--- a/6/1/1/3/1/Posiciones 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/3/1/Posiciones 2007 a 2021 - Trimestral.xlsx
@@ -2265,7 +2265,7 @@
         <v>66</v>
       </c>
       <c r="B59">
-        <v>59032</v>
+        <v>59078</v>
       </c>
       <c r="C59">
         <v>484</v>
@@ -2283,10 +2283,10 @@
         <v>6888</v>
       </c>
       <c r="H59">
-        <v>6321</v>
+        <v>6351</v>
       </c>
       <c r="I59">
-        <v>27915</v>
+        <v>27930</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/1/3/1/Posiciones 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/3/1/Posiciones 2007 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Serie</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -572,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2289,6 +2292,14 @@
         <v>27930</v>
       </c>
     </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60">
+        <v>59801</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/1/3/1/Posiciones 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/3/1/Posiciones 2007 a 2021 - Trimestral.xlsx
@@ -2268,7 +2268,7 @@
         <v>66</v>
       </c>
       <c r="B59">
-        <v>59078</v>
+        <v>59118</v>
       </c>
       <c r="C59">
         <v>484</v>
@@ -2289,7 +2289,7 @@
         <v>6351</v>
       </c>
       <c r="I59">
-        <v>27930</v>
+        <v>27970</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2298,6 +2298,27 @@
       </c>
       <c r="B60">
         <v>59801</v>
+      </c>
+      <c r="C60">
+        <v>393</v>
+      </c>
+      <c r="D60">
+        <v>5364</v>
+      </c>
+      <c r="E60">
+        <v>8867</v>
+      </c>
+      <c r="F60">
+        <v>4452</v>
+      </c>
+      <c r="G60">
+        <v>6063</v>
+      </c>
+      <c r="H60">
+        <v>7688</v>
+      </c>
+      <c r="I60">
+        <v>26975</v>
       </c>
     </row>
   </sheetData>
